--- a/assets/assets/documents/import.xlsx
+++ b/assets/assets/documents/import.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joao.carvalho\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9C48AE-E90C-47B6-BB66-2B67470EED3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{46E0E519-F79C-4218-90BC-C15BA243042D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{27BF0987-D1FF-4FE8-BDCF-AF8113284FA5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{27BF0987-D1FF-4FE8-BDCF-AF8113284FA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Entradas " sheetId="1" r:id="rId1"/>
     <sheet name="Saídas" sheetId="2" r:id="rId2"/>
     <sheet name="Dados do planejamento do evento" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,6 +29,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="20">
   <si>
     <t xml:space="preserve">Catégoria </t>
   </si>
@@ -50,40 +51,43 @@
     <t xml:space="preserve">Responsável </t>
   </si>
   <si>
+    <t xml:space="preserve">Quantidade </t>
+  </si>
+  <si>
+    <t>Lote</t>
+  </si>
+  <si>
+    <t>Área do evento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Observação </t>
+  </si>
+  <si>
+    <t>Ingresso</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Vip</t>
+  </si>
+  <si>
+    <t>Patrocínio</t>
+  </si>
+  <si>
+    <t>Ambev</t>
+  </si>
+  <si>
     <t>Pagamento</t>
   </si>
   <si>
     <t>João Flávio</t>
   </si>
   <si>
-    <t xml:space="preserve">Observação </t>
-  </si>
-  <si>
     <t xml:space="preserve">Estrutura </t>
   </si>
   <si>
-    <t>Ingresso</t>
-  </si>
-  <si>
-    <t>Lote</t>
-  </si>
-  <si>
-    <t>Patrocínio</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Área do evento</t>
-  </si>
-  <si>
-    <t>Vip</t>
-  </si>
-  <si>
-    <t>Ambev</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantidade </t>
+    <t>Fornecedor de destilados</t>
   </si>
   <si>
     <t xml:space="preserve">Semana </t>
@@ -93,19 +97,13 @@
   </si>
   <si>
     <t xml:space="preserve">Valor em caixa estimado </t>
-  </si>
-  <si>
-    <t>02/012020</t>
-  </si>
-  <si>
-    <t>Fornecedor de destilados</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,7 +160,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -458,16 +456,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{501197DA-FBB3-4DE0-B527-28BFDD75D348}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
@@ -475,7 +473,7 @@
     <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -489,19 +487,19 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -512,7 +510,7 @@
         <v>2545</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1">
         <v>85</v>
@@ -521,15 +519,15 @@
         <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
       </c>
       <c r="B3" s="3">
         <v>44564</v>
@@ -538,19 +536,201 @@
         <v>5500</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="B4" s="3">
+        <v>44565</v>
+      </c>
+      <c r="C4" s="1">
+        <v>5501</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="B5" s="3">
+        <v>44778</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5502</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
         <v>11</v>
+      </c>
+      <c r="B6" s="3">
+        <v>44779</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5503</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3">
+        <v>44780</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5504</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="3">
+        <v>44781</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5505</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="1">
+        <v>6</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3">
+        <v>44570</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5506</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1">
+        <v>7</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="3">
+        <v>44571</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5507</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="1">
+        <v>8</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -560,13 +740,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D6FFD4-5652-4BC4-8A07-CDFE43E9B02F}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.85546875" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
@@ -575,7 +755,7 @@
     <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -589,12 +769,12 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2">
         <v>44562</v>
@@ -603,27 +783,95 @@
         <v>500.65</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="B3" s="4">
+        <v>44563</v>
       </c>
       <c r="C3">
         <v>1563.52</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="4">
+        <v>44564</v>
+      </c>
+      <c r="C4">
+        <v>1564.52</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="4">
+        <v>44565</v>
+      </c>
+      <c r="C5">
+        <v>1565.52</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="4">
+        <v>44778</v>
+      </c>
+      <c r="C6">
+        <v>1566.52</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="4">
+        <v>44779</v>
+      </c>
+      <c r="C7">
+        <v>1567.52</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -639,24 +887,24 @@
       <selection sqref="A1:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -667,7 +915,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -678,7 +926,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -689,7 +937,7 @@
         <v>15500</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -700,7 +948,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -711,7 +959,7 @@
         <v>26500</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -722,7 +970,7 @@
         <v>32000</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -733,7 +981,7 @@
         <v>37500</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -744,7 +992,7 @@
         <v>43000</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -755,7 +1003,7 @@
         <v>48500</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
